--- a/biology/Zoologie/Babouk/Babouk.xlsx
+++ b/biology/Zoologie/Babouk/Babouk.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heteropoda venatoria
-Heteropoda venatoria, la Babouk[1], est une espèce d'araignées aranéomorphes de la famille des Sparassidae[2]. Elle est parfois confondue avec l'araignée-banane des Antilles.
+Heteropoda venatoria, la Babouk, est une espèce d'araignées aranéomorphes de la famille des Sparassidae. Elle est parfois confondue avec l'araignée-banane des Antilles.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom en créole réunionnais est babouk, d'où le français régional de La Réunion babouc ou babouque. Elle est aussi désignée, comme d'autres espèces, sous le nom ambigu d'« araignée-banane » ou « araignées des bananes », comme aux Antilles ou au Québec[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom en créole réunionnais est babouk, d'où le français régional de La Réunion babouc ou babouque. Elle est aussi désignée, comme d'autres espèces, sous le nom ambigu d'« araignée-banane » ou « araignées des bananes », comme aux Antilles ou au Québec.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le corps mesure de 22 à 28 mm et avec des pattes étendues de 7 à 12 cm. Les femelles ont un corps plus gros que les mâles, notamment au niveau de l'opisthosome[4]. Le corps mesure jusqu'à 30 mm chez la femelle et 22 mm chez le mâle[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le corps mesure de 22 à 28 mm et avec des pattes étendues de 7 à 12 cm. Les femelles ont un corps plus gros que les mâles, notamment au niveau de l'opisthosome. Le corps mesure jusqu'à 30 mm chez la femelle et 22 mm chez le mâle.
 			Femelle.
 			Mâle.
 </t>
@@ -576,7 +592,9 @@
           <t>Écologie et comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La babouk est une espèce chasseuse qui ne construit pas de toile. La femelle porte son sac à œufs sous son abdomen. C'est une espèce commensale que l'on rencontre quasi exclusivement dans les habitations, où elle se nourrit de cafards et de gros insectes.
 			Femelle portant son sac d'œufs.
@@ -609,13 +627,15 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La babouk vit dans les bâtiments, dans les plantations de bananes, les forêts secondaires et parmi les cailloux[5].
-Cette espèce pantropicale par introduction est originaire d'Asie[2]. Elle a été introduite en Amérique, dans les îles de l'océan Pacifique, en Afrique et en Europe.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La babouk vit dans les bâtiments, dans les plantations de bananes, les forêts secondaires et parmi les cailloux.
+Cette espèce pantropicale par introduction est originaire d'Asie. Elle a été introduite en Amérique, dans les îles de l'océan Pacifique, en Afrique et en Europe.
 Elle est connue dans les départements français de La Réunion, de Guadeloupe, de Mayotte, de Guyane et de Martinique, ainsi qu'en Polynésie française et en Nouvelle-Calédonie.
-Elle a été observée en Inde, au Sri Lanka, au Népal, au Bhoutan, au Bangladesh, en Birmanie, en Thaïlande, au Cambodge, au Viêt Nam, à Singapour, en Malaisie, en Indonésie, en Papouasie-Nouvelle-Guinée, aux Philippines, en Chine, au Japon et à Taïwan[6].
-Elle est parfois transportée avec des marchandises dans d'autres pays. Un cas de morsure est par exemple signalé au Royaume-Uni[5]. Une babouk est également trouvée dans un régime de bananes à Sallanches en janvier 2015, d'abord signalée comme appartenant à l'espèce Phoneutria nigriventer et identifiée correctement par Christine Rollard[7]. Une autre a été trouvée fin août 2022 dans un supermarché de Castelnau-d'Estrétefonds par un employé déballant une palette de bananes en provenance du Ghana, l'araignée ayant été transportée vivante par les pompiers à l'école vétérinaire de Toulouse où elle a été formellement identifiée[8].
+Elle a été observée en Inde, au Sri Lanka, au Népal, au Bhoutan, au Bangladesh, en Birmanie, en Thaïlande, au Cambodge, au Viêt Nam, à Singapour, en Malaisie, en Indonésie, en Papouasie-Nouvelle-Guinée, aux Philippines, en Chine, au Japon et à Taïwan.
+Elle est parfois transportée avec des marchandises dans d'autres pays. Un cas de morsure est par exemple signalé au Royaume-Uni. Une babouk est également trouvée dans un régime de bananes à Sallanches en janvier 2015, d'abord signalée comme appartenant à l'espèce Phoneutria nigriventer et identifiée correctement par Christine Rollard. Une autre a été trouvée fin août 2022 dans un supermarché de Castelnau-d'Estrétefonds par un employé déballant une palette de bananes en provenance du Ghana, l'araignée ayant été transportée vivante par les pompiers à l'école vétérinaire de Toulouse où elle a été formellement identifiée.
 </t>
         </is>
       </c>
@@ -644,12 +664,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite sous le protonyme Aranea venatoria par Linné en 1767. Elle est l'espèce-type du genre Heteropoda.
-Heteropoda venatoria pseudomarginata[9]  est un nomen dubium[2].
-Liste des synonymes
-Cette espèce admet de nombreux synonymes :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Aranea venatoria par Linné en 1767. Elle est l'espèce-type du genre Heteropoda.
+Heteropoda venatoria pseudomarginata  est un nomen dubium.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Babouk</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Babouk</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Liste des synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce admet de nombreux synonymes :
 Aranea venatoria Linnaeus, 1767
 Aranea regia Fabricius, 1793
 Aranea pallens Fabricius, 1798
@@ -686,70 +743,109 @@
 Heteropoda nicobarensis Tikader, 1977
 Heteropoda hainanensis Li, 1991
 Heteropoda shimen Yin, Peng, Yan &amp; Bao, 2000
-Liste des sous-espèces
-Selon World Spider Catalog                                (version 20.5, 29/10/2019)[10] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Babouk</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Babouk</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 20.5, 29/10/2019) :
 Heteropoda venatoria emarginata Thorell, 1881 de Sumatra
 Heteropoda venatoria foveolata Thorell, 1881 de Nouvelle-Guinée
 Heteropoda venatoria venatoria (Linnaeus, 1767)</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Babouk</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Babouk</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Babouk</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Babouk</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Heteropoda venatoria et l'espèce humaine</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette araignée est souvent rencontrée en raison de sa grande taille, de son mode de vie à l'intérieur des bâtiments et de sa large répartition. Si sa grande taille peut effrayer, les habitants d'Asie et des Caraïbes l'apprécient, du fait qu'elle élimine les nuisibles comme les blattes. Cette araignée n'est pas considérée comme dangereuse, même si sa morsure peut être douloureuse[5]. Elle n'est absolument pas agressive et préférera toujours fuir face à un humain : une morsure défensive (généralement sans venin) ne sera déclenchée qu'en danger de mort, par exemple si on la serre dans sa main en l'empêchant de s'enfuir. 
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette araignée est souvent rencontrée en raison de sa grande taille, de son mode de vie à l'intérieur des bâtiments et de sa large répartition. Si sa grande taille peut effrayer, les habitants d'Asie et des Caraïbes l'apprécient, du fait qu'elle élimine les nuisibles comme les blattes. Cette araignée n'est pas considérée comme dangereuse, même si sa morsure peut être douloureuse. Elle n'est absolument pas agressive et préférera toujours fuir face à un humain : une morsure défensive (généralement sans venin) ne sera déclenchée qu'en danger de mort, par exemple si on la serre dans sa main en l'empêchant de s'enfuir. 
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Babouk</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Babouk</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Babouk</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Babouk</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Linnaeus, 1767 : Systema naturae per regna tria naturae, secundum classes, ordines, genera, species, cum characteribus differentiis, synonymis, locis. Editio duodecima, reformata. Holmiae.
 Thorell, 1881 : Studi sui Ragni Malesi e Papuani. III. Ragni dell'Austro Malesia e del Capo York, conservati nel Museo civico di storia naturale di Genova. Annali del Museo Civico di Storia Naturale di Genova, vol. 17, p. 1-727 (texte intégral).</t>
